--- a/docs/Azure Security Benchmark.xlsx
+++ b/docs/Azure Security Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmusl\Source\Repos\Azure-Landing-Zones-Danmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE73D6-047F-4F3E-860C-F35CF416D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532359AB-3656-4CAB-A383-44D6B98B8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E40113FE-E5B3-4034-A9B1-145763A8E03C}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="277">
   <si>
     <t>Disabled</t>
   </si>
   <si>
-    <t>disabled</t>
-  </si>
-  <si>
     <t>Virtual machines' Guest Configuration extension should be deployed with system-assigned managed identity</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>[Preview]: Certificates should have the specified maximum validity period</t>
   </si>
   <si>
-    <t>Audit only</t>
-  </si>
-  <si>
     <t>Key Vault secrets should have an expiration date</t>
   </si>
   <si>
@@ -452,9 +446,6 @@
     <t>Only secure connections to your Azure Cache for Redis should be enabled</t>
   </si>
   <si>
-    <t>Nope</t>
-  </si>
-  <si>
     <t>Auditing on SQL server should be enabled</t>
   </si>
   <si>
@@ -656,9 +647,6 @@
     <t>Function apps that use Python should use the latest 'Python version'</t>
   </si>
   <si>
-    <t>SQL servers with auditing to storage account destination should be configured with 90 days retention o</t>
-  </si>
-  <si>
     <t>AAD setting</t>
   </si>
   <si>
@@ -671,9 +659,6 @@
     <t>App Service apps should require FTPS only</t>
   </si>
   <si>
-    <t>Audit, deny later in certain MGMT grps</t>
-  </si>
-  <si>
     <t>Azure Key Vault should have firewall enabled</t>
   </si>
   <si>
@@ -683,9 +668,6 @@
     <t>Storage accounts should use private link</t>
   </si>
   <si>
-    <t>Custom/Built-in</t>
-  </si>
-  <si>
     <t>Custom/built-in</t>
   </si>
   <si>
@@ -722,30 +704,12 @@
     <t>/providers/Microsoft.Authorization/policyDefinitions/f81e3117-0093-4b17-8a60-82363134f0eb</t>
   </si>
   <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/a096cbd0-4693-432f-9374-682f485f23f3, /providers/Microsoft.Authorization/policyDefinitions/08cf2974-d178-48a0-b26d-f6b8e555748b</t>
-  </si>
-  <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/0f98368e-36bc-4716-8ac2-8f8067203b63, /providers/Microsoft.Authorization/policyDefinitions/a18c77f2-3d6d-497a-9f61-849a7e8a3b79</t>
-  </si>
-  <si>
     <t>/providers/Microsoft.Authorization/policySetDefinitions/12794019-7a00-42cf-95c2-882eed337cc8</t>
   </si>
   <si>
     <t>/providers/Microsoft.Authorization/policySetDefinitions/281d9e47-d14d-4f05-b8eb-18f2c4a034ff</t>
   </si>
   <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/a5e3fe8f-f6cd-4f1d-bbf6-c749754a724b, /providers/Microsoft.Authorization/policyDefinitions/cca5adfe-626b-4cc6-8522-f5b6ed2391bd</t>
-  </si>
-  <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/25a5046c-c423-4805-9235-e844ae9ef49b, /providers/Microsoft.Authorization/policyDefinitions/70adbb40-e092-42d5-a6f8-71c540a5efdb</t>
-  </si>
-  <si>
-    <t>Audit only, consider deny Service Fabric</t>
-  </si>
-  <si>
-    <t>Audit only. Sync with PIM settings</t>
-  </si>
-  <si>
     <t>/providers/Microsoft.Authorization/policyDefinitions/b99b73e7-074b-4089-9395-b7236f094491</t>
   </si>
   <si>
@@ -794,21 +758,12 @@
     <t>Custom: PostgreSQL-Configure-Enforce-SSL</t>
   </si>
   <si>
-    <t>Custom: PostgreSQL-Configure-Disable-Public-Network-Access</t>
-  </si>
-  <si>
     <t>/providers/Microsoft.Authorization/policyDefinitions/13502221-8df0-4414-9937-de9c5c4e396b</t>
   </si>
   <si>
     <t>Disable??</t>
   </si>
   <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/ae44c1d1-0df2-4ca9-98fa-a3d3ae5b409d, /providers/Microsoft.Authorization/policyDefinitions/014664e7-e348-41a3-aeb9-566e4ff6a9df</t>
-  </si>
-  <si>
-    <t>/providers/Microsoft.Authorization/policyDefinitions/1f01f1c7-539c-49b5-9ef4-d4ffa37d22e0, /providers/Microsoft.Authorization/policyDefinitions/fa3a6357-c6d6-4120-8429-855577ec0063</t>
-  </si>
-  <si>
     <t>Custom: Key-Vault-Configure-Purge-Protection</t>
   </si>
   <si>
@@ -825,13 +780,117 @@
   </si>
   <si>
     <t>/providers/Microsoft.Authorization/policyDefinitions/ac673a9a-f77d-4846-b2d8-a57f8e1c01dc</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/13ce0167-8ca6-4048-8e6b-f996402e3c1b</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/25da7dfb-0666-4a15-a8f5-402127efd8bb</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/8e7da0a5-0a0e-4bbc-bfc0-7773c018b616</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/dc2d41d1-4ab1-4666-a3e1-3d51c43e0049</t>
+  </si>
+  <si>
+    <t>Audit. Later use Update Management Center (Private Preview)</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/c84e5349-db6d-4769-805e-e14037dab9b5</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/bfea026e-043f-4ff4-9d1b-bf301ca7ff46
+/providers/Microsoft.Authorization/policyDefinitions/59efceea-0c96-497e-a4a1-4eb2290dac15</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/95406fc3-1f69-47b0-8105-4c03b276ec5c
+/providers/Microsoft.Authorization/policyDefinitions/7cb1b219-61c6-47e0-b80c-4472cadeeb5f</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/a5e3fe8f-f6cd-4f1d-bbf6-c749754a724b
+/providers/Microsoft.Authorization/policyDefinitions/cca5adfe-626b-4cc6-8522-f5b6ed2391bd</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/0f98368e-36bc-4716-8ac2-8f8067203b63
+/providers/Microsoft.Authorization/policyDefinitions/a18c77f2-3d6d-497a-9f61-849a7e8a3b79</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/ae44c1d1-0df2-4ca9-98fa-a3d3ae5b409d
+/providers/Microsoft.Authorization/policyDefinitions/014664e7-e348-41a3-aeb9-566e4ff6a9df</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/25a5046c-c423-4805-9235-e844ae9ef49b
+/providers/Microsoft.Authorization/policyDefinitions/70adbb40-e092-42d5-a6f8-71c540a5efdb</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/a096cbd0-4693-432f-9374-682f485f23f3
+/providers/Microsoft.Authorization/policyDefinitions/08cf2974-d178-48a0-b26d-f6b8e555748b</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/1f01f1c7-539c-49b5-9ef4-d4ffa37d22e0
+/providers/Microsoft.Authorization/policyDefinitions/fa3a6357-c6d6-4120-8429-855577ec0063</t>
+  </si>
+  <si>
+    <t>SQL servers with auditing to storage account destination should be configured with 90 days retention or higher</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/e494853f-93c3-4e44-9210-d12f61a64b34</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/08a4470f-b26d-428d-97f4-7e3e9c92b366
+/providers/Microsoft.Authorization/policyDefinitions/2fea0c12-e7d4-4e03-b7bf-c34b2b8d787d
+/providers/Microsoft.Authorization/policyDefinitions/d55b81e1-984f-4a96-acab-fae204e3ca7f</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/84cfed75-dfd4-421b-93df-725b479d356a
+/providers/Microsoft.Authorization/policyDefinitions/af0082fd-fa58-4349-b916-b0e47abb0935
+/providers/Microsoft.Authorization/policyDefinitions/89ca9cc7-25cd-4d53-97ba-445ca7a1f222</t>
+  </si>
+  <si>
+    <t>Audit. Sync with PIM settings</t>
+  </si>
+  <si>
+    <t>Audit. Consider deny Service Fabric</t>
+  </si>
+  <si>
+    <t>Audit. We default to audit to log analytics</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policySetDefinitions/59e9c3eb-d8df-473b-8059-23fd38ddd0f0</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/47ba1dd7-28d9-4b07-a8d5-9813bed64e0c</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/28b0b1e5-17ba-4963-a7a4-5a1ab4400a0b</t>
+  </si>
+  <si>
+    <t>Custom: PostgreSQL-Configure-Disable-Public-Network-Access
+Custom: PostgreSQL-Flex-Configure-Disable-Public-Network-Access</t>
+  </si>
+  <si>
+    <t>Custom: MySQL-Configure-Disable-Public-Network-Access
+Custom: MySQL-Flex-Configure-Disable-Public-Network-Access</t>
+  </si>
+  <si>
+    <t>Custom: MariaDB-Configure-Disable-Public-Network-Access</t>
+  </si>
+  <si>
+    <t>Custom: Deploy-Security-Contacts</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/86a912f6-9a06-4e26-b447-11b16ba8659f</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/6134c3db-786f-471e-87bc-8f479dc890f6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,15 +920,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,13 +938,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -900,42 +947,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1251,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD710AD1-A511-45DA-8B61-3714D605CDFC}">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,423 +1295,423 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
+      <c r="A11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B15" t="s">
-        <v>132</v>
+      <c r="B12" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
+      <c r="A16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>252</v>
+        <v>187</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
+      <c r="A20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>206</v>
+      <c r="B24" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
+      <c r="A32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>152</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>155</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
+      <c r="A45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>215</v>
+      <c r="A48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>132</v>
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
+      <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>127</v>
+      <c r="A52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>0</v>
@@ -1687,1218 +1719,1218 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
+      <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
+      <c r="A73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" t="s">
-        <v>132</v>
+      <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
+      <c r="A78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" t="s">
-        <v>127</v>
+      <c r="A80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" t="s">
-        <v>132</v>
+      <c r="A84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" t="s">
-        <v>134</v>
+      <c r="A85" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>232</v>
+        <v>151</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>153</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>255</v>
+        <v>196</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>94</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>96</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B152" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>69</v>
-      </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>105</v>
-      </c>
-      <c r="B156" t="s">
-        <v>127</v>
+      <c r="B156" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>93</v>
-      </c>
-      <c r="B158" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>251</v>
+        <v>94</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
-        <v>134</v>
+      <c r="A163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>182</v>
-      </c>
-      <c r="B173" t="s">
-        <v>132</v>
+      <c r="A173" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>233</v>
+      <c r="A175" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>233</v>
+      <c r="A176" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>163</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1</v>
+      <c r="A178" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>162</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>1</v>
+      <c r="A180" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>205</v>
-      </c>
-      <c r="B181" t="s">
-        <v>134</v>
+      <c r="A181" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>80</v>
-      </c>
-      <c r="B184" t="s">
-        <v>210</v>
+      <c r="A184" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>79</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>213</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
+      <c r="A186" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B187" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>99</v>
-      </c>
-      <c r="B188" t="s">
-        <v>214</v>
+      <c r="A188" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>134</v>
+      <c r="A190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>17</v>
-      </c>
-      <c r="B192" t="s">
-        <v>134</v>
+      <c r="A192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>9</v>
-      </c>
-      <c r="B195" t="s">
-        <v>134</v>
+      <c r="A195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>97</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>59</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" t="s">
-        <v>137</v>
+      <c r="B198" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>53</v>
+      </c>
+      <c r="B200" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B200" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>55</v>
-      </c>
-      <c r="B201" t="s">
-        <v>134</v>
+      <c r="B201" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>130</v>
-      </c>
-      <c r="B203" t="s">
-        <v>132</v>
+      <c r="A203" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B205" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Azure Security Benchmark.xlsx
+++ b/docs/Azure Security Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmusl\Source\Repos\Azure-Landing-Zones-Danmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532359AB-3656-4CAB-A383-44D6B98B8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF388E25-5F9B-4183-A677-0AD35B247BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E40113FE-E5B3-4034-A9B1-145763A8E03C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="283">
   <si>
     <t>Disabled</t>
   </si>
@@ -884,6 +884,24 @@
   </si>
   <si>
     <t>/providers/Microsoft.Authorization/policyDefinitions/6134c3db-786f-471e-87bc-8f479dc890f6</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/1a5b4dca-0b6f-4cf5-907c-56316bc1bf3d</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/6c66c325-74c8-42fd-a286-a74b0e2939d8</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/94de2ad3-e0c1-4caf-ad78-5d47bbc83d3d</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/98d0b9f8-fd90-49c9-88e2-d3baf3b0dd86</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/95edb821-ddaf-4404-9732-666045e056b4</t>
+  </si>
+  <si>
+    <t>/providers/Microsoft.Authorization/policyDefinitions/1c6e92c9-99f0-4e55-9cf2-0c234dc48f99</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD710AD1-A511-45DA-8B61-3714D605CDFC}">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,11 +1704,11 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
-        <v>154</v>
+      <c r="B50" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,11 +1736,11 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B54" t="s">
-        <v>132</v>
+      <c r="B54" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,19 +2344,19 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B130" t="s">
-        <v>130</v>
+      <c r="B130" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B131" t="s">
-        <v>130</v>
+      <c r="B131" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,11 +2368,11 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B133" t="s">
-        <v>130</v>
+      <c r="B133" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,11 +2592,11 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B161" t="s">
-        <v>209</v>
+      <c r="B161" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
